--- a/biology/Biologie cellulaire et moléculaire/Cellule_réticulaire_épithéliale/Cellule_réticulaire_épithéliale.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Cellule_réticulaire_épithéliale/Cellule_réticulaire_épithéliale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cellule_r%C3%A9ticulaire_%C3%A9pith%C3%A9liale</t>
+          <t>Cellule_réticulaire_épithéliale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les cellules réticulaires épithéliales, ou cellules épithélioréticulaires, sont une structure présente à la fois dans le cortex et la médulla du thymus. Elles constituent avec les lymphocytes le parenchyme thymique. Elles offrent un support structural aux lymphocytes et sécrètent les hormones thymiques qui favorisent leur maturation[1].     
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cellules réticulaires épithéliales, ou cellules épithélioréticulaires, sont une structure présente à la fois dans le cortex et la médulla du thymus. Elles constituent avec les lymphocytes le parenchyme thymique. Elles offrent un support structural aux lymphocytes et sécrètent les hormones thymiques qui favorisent leur maturation.     
 Elles se retrouvent également dans la bourse de Fabricius chez les oiseaux.      
 </t>
         </is>
